--- a/va_facility_data_2025-02-20/John H. Bradley Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''John%20H.%20Bradley%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/John H. Bradley Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''John%20H.%20Bradley%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R499856578b29442386a3099d282f0227"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R094798ff0422440c8886c7e3eaa54814"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3b4908b35c2f485797794030ce07fd56"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R00e12c4dcf70440b92cbcba0d7117fd5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf34a9f1971844433a50397f9c33665f4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra0fabeddb2144e6caf3b7dd56b50c187"/>
   </x:sheets>
 </x:workbook>
 </file>
